--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,61 +46,58 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>thin</t>
+    <t>however</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>less</t>
   </si>
   <si>
     <t>plastic</t>
@@ -109,135 +106,126 @@
     <t>paint</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>fell</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
+    <t>nothing</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>item</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>price</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>box</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>use</t>
+    <t>buy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -256,19 +244,22 @@
     <t>perfect</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>enjoy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>playing</t>
   </si>
   <si>
     <t>game</t>
@@ -635,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +695,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +763,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="M4">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8148148148148148</v>
+        <v>0.765625</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +813,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>0.6989247311827957</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L5">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +845,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7931034482758621</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K6">
-        <v>0.660377358490566</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L6">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="M6">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7605633802816901</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="D7">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.59375</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K8">
-        <v>0.4782608695652174</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +995,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7475728155339806</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C9">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K9">
-        <v>0.3655737704918033</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="L9">
-        <v>446</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>446</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>774</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7473118279569892</v>
+        <v>0.6875</v>
       </c>
       <c r="C10">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K10">
-        <v>0.3400286944045911</v>
+        <v>0.3795081967213115</v>
       </c>
       <c r="L10">
-        <v>237</v>
+        <v>463</v>
       </c>
       <c r="M10">
-        <v>237</v>
+        <v>463</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>460</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6857142857142857</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K11">
-        <v>0.2800829875518672</v>
+        <v>0.3357245337159254</v>
       </c>
       <c r="L11">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="M11">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>347</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1145,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6824324324324325</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="C12">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K12">
-        <v>0.2333333333333333</v>
+        <v>0.3049792531120332</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>92</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1195,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.631578947368421</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K13">
-        <v>0.2289156626506024</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1245,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6041666666666666</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K14">
-        <v>0.2116402116402116</v>
+        <v>0.2349397590361446</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K15">
-        <v>0.2079510703363914</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="L15">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M15">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,7 +1345,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5952380952380952</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -1372,31 +1363,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K16">
-        <v>0.1370967741935484</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N16">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>214</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5798319327731093</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="C17">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D17">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K17">
-        <v>0.1182795698924731</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,49 +1445,49 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5555555555555556</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18">
+        <v>0.1204819277108434</v>
+      </c>
+      <c r="L18">
         <v>30</v>
       </c>
-      <c r="D18">
+      <c r="M18">
         <v>30</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>24</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18">
-        <v>0.112280701754386</v>
-      </c>
-      <c r="L18">
-        <v>128</v>
-      </c>
-      <c r="M18">
-        <v>129</v>
-      </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1012</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1495,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5555555555555556</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,31 +1513,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K19">
-        <v>0.06294613887086307</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="L19">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="M19">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>1444</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1545,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5246376811594203</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="C20">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="D20">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,31 +1563,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K20">
-        <v>0.032</v>
+        <v>0.06790123456790123</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N20">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>726</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,25 +1595,49 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5185185185185185</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C21">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>28</v>
       </c>
-      <c r="D21">
-        <v>28</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>26</v>
+      <c r="J21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21">
+        <v>0.0428849902534113</v>
+      </c>
+      <c r="L21">
+        <v>66</v>
+      </c>
+      <c r="M21">
+        <v>68</v>
+      </c>
+      <c r="N21">
+        <v>0.97</v>
+      </c>
+      <c r="O21">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1473</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,13 +1645,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5116279069767442</v>
+        <v>0.45</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1648,7 +1663,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22">
+        <v>0.03337783711615487</v>
+      </c>
+      <c r="L22">
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <v>28</v>
+      </c>
+      <c r="N22">
+        <v>0.89</v>
+      </c>
+      <c r="O22">
+        <v>0.11</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>724</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1656,13 +1695,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4947368421052631</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C23">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1674,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1682,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4881889763779528</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C24">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1700,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1708,13 +1747,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4603174603174603</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1726,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1734,13 +1773,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4578313253012048</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1752,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1760,13 +1799,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.45</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1778,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1786,13 +1825,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.421875</v>
+        <v>0.3613861386138614</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1804,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>37</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1812,13 +1851,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4181818181818182</v>
+        <v>0.3364928909952606</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1830,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>32</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1838,13 +1877,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4107142857142857</v>
+        <v>0.3203125</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1856,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1864,13 +1903,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.396551724137931</v>
+        <v>0.2991452991452991</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1882,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1890,13 +1929,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3811881188118812</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C32">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1908,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>125</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1916,13 +1955,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3707865168539326</v>
+        <v>0.2527472527472527</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1934,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1942,13 +1981,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3696682464454976</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C34">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D34">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1960,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1968,13 +2007,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3671875</v>
+        <v>0.2427536231884058</v>
       </c>
       <c r="C35">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D35">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1986,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>81</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1994,13 +2033,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.360655737704918</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2012,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>39</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2020,13 +2059,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2991452991452991</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2038,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2046,13 +2085,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2959183673469388</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="C38">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2064,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>69</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2072,13 +2111,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2525773195876289</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C39">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2090,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2098,25 +2137,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2255192878338279</v>
+        <v>0.2175856929955291</v>
       </c>
       <c r="C40">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D40">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2124,13 +2163,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2101449275362319</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C41">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D41">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2142,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>218</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2150,25 +2189,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2051282051282051</v>
+        <v>0.2</v>
       </c>
       <c r="C42">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D42">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E42">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>124</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2176,13 +2215,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2025316455696203</v>
+        <v>0.1885714285714286</v>
       </c>
       <c r="C43">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2194,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>252</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2202,13 +2241,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2025316455696203</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="C44">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D44">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2220,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>252</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2228,25 +2267,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2</v>
+        <v>0.170028818443804</v>
       </c>
       <c r="C45">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D45">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>160</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2254,13 +2293,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2272,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>112</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2280,13 +2319,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1869158878504673</v>
+        <v>0.145374449339207</v>
       </c>
       <c r="C47">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D47">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2298,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>174</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2306,13 +2345,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1724137931034483</v>
+        <v>0.1315068493150685</v>
       </c>
       <c r="C48">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D48">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2324,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>288</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2332,13 +2371,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.16</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C49">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2350,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2358,25 +2397,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1497797356828194</v>
+        <v>0.1255060728744939</v>
       </c>
       <c r="C50">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D50">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>386</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2384,13 +2423,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1413612565445026</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D51">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2402,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>164</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2410,25 +2449,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1336032388663968</v>
+        <v>0.1070422535211268</v>
       </c>
       <c r="C52">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D52">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E52">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>214</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2436,25 +2475,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1256830601092896</v>
+        <v>0.09390444810543658</v>
       </c>
       <c r="C53">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D53">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>160</v>
+        <v>550</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2462,25 +2501,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1161048689138577</v>
+        <v>0.08501118568232663</v>
       </c>
       <c r="C54">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D54">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>236</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2488,25 +2527,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1123287671232877</v>
+        <v>0.07728337236533958</v>
       </c>
       <c r="C55">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D55">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>324</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2514,25 +2553,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.09719934102141681</v>
+        <v>0.06984126984126984</v>
       </c>
       <c r="C56">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D56">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E56">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="F56">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>548</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2540,155 +2579,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.09577464788732394</v>
+        <v>0.05089058524173028</v>
       </c>
       <c r="C57">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D57">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.0779510022271715</v>
-      </c>
-      <c r="C58">
-        <v>35</v>
-      </c>
-      <c r="D58">
-        <v>35</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.07278481012658228</v>
-      </c>
-      <c r="C59">
-        <v>23</v>
-      </c>
-      <c r="D59">
-        <v>24</v>
-      </c>
-      <c r="E59">
-        <v>0.04</v>
-      </c>
-      <c r="F59">
-        <v>0.96</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.07259953161592506</v>
-      </c>
-      <c r="C60">
-        <v>31</v>
-      </c>
-      <c r="D60">
-        <v>38</v>
-      </c>
-      <c r="E60">
-        <v>0.18</v>
-      </c>
-      <c r="F60">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.04580152671755725</v>
-      </c>
-      <c r="C61">
-        <v>30</v>
-      </c>
-      <c r="D61">
-        <v>30</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <v>0.04325699745547074</v>
-      </c>
-      <c r="C62">
-        <v>34</v>
-      </c>
-      <c r="D62">
-        <v>42</v>
-      </c>
-      <c r="E62">
-        <v>0.19</v>
-      </c>
-      <c r="F62">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
